--- a/similarities/split_global/harmonic_similarity_timestamps_273.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_273.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,90 +484,106 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:05.956303')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:19.727000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,610 +592,638 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E', 'A', 'D']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'A:maj', 'D:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:29.008095', '0:00:37.332448')]</t>
+          <t>('0:01:05.300000', '0:01:13.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:59.331000', '0:01:07.892000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=29.008095']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=65.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=59.331']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:27.520000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:21')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:03.826054', '0:00:14.054444')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:32.220000', '0:00:43.900000'), ('0:00:38.120000', '0:00:47.080000')]</t>
+          <t>('0:02:03.220000', '0:02:06.880000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:54.680000', '0:02:12.880000'), ('0:00:16.020000', '0:00:50.780000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=32.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=114.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:00:38.900000', '0:00:47.160000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:01:48.280000', '0:02:00.520000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=108.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=20.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:16.340000', '0:00:36.300000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:23.820000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:01:04.660000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min'], ['C:min', 'F:min/5', 'C:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:00:08.400000', '0:00:12.140000')]</t>
+          <t>('0:00:20.801000', '0:00:27.165000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000'), ('0:00:17.357000', '0:00:22.981000')]</t>
+          <t>('0:00:19.000294', '0:00:29.309954')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:00:44.820000', '0:00:56.280000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:22.860000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=44.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=22.86</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:48.170328', '0:00:55.589104')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000')]</t>
+          <t>('0:00:15.640000', '0:00:24.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb/5', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:15.633000', '0:04:19.184000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:49.981485', '0:01:03.042709')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
